--- a/rp/费用清单.xlsx
+++ b/rp/费用清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>费用类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,6 +33,22 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买qq群搜群器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江海波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册服务（含地址挂靠）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江海波</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -85,9 +101,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -392,15 +409,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="3" max="3" width="18.25" customWidth="1"/>
     <col min="4" max="4" width="16.375" customWidth="1"/>
@@ -423,6 +440,34 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>5.88</v>
+      </c>
+      <c r="C2" s="2">
+        <v>42851</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>3200</v>
+      </c>
+      <c r="C3" s="2">
+        <v>42851</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/rp/费用清单.xlsx
+++ b/rp/费用清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>费用类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,6 +45,14 @@
   </si>
   <si>
     <t>注册服务（含地址挂靠）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江海波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印二维码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -409,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -468,6 +476,20 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2">
+        <v>42859</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
